--- a/Dataset1.xlsx
+++ b/Dataset1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashut\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\amineeeeee\github\local repo\sql portfolio india data set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A413319-E15A-4D37-8CDD-36D0A3F88175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053B53F3-3675-4CA5-B2F8-8E74F903AB16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69683AD3-6EB6-4B51-B0ED-1172DDF2AC59}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{69683AD3-6EB6-4B51-B0ED-1172DDF2AC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -2053,7 +2045,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2398,12 +2390,19 @@
   <dimension ref="A1:E641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2437,7 +2436,7 @@
         <v>84.53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>84.06</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>87.67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2488,7 +2487,7 @@
         <v>86.15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2505,7 +2504,7 @@
         <v>89.91</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>77.510000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>76.209999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>85.31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>66.59</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>75.510000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2607,7 +2606,7 @@
         <v>82.31</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>85.53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>72.319999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2658,7 +2657,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>70.680000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2709,7 +2708,7 @@
         <v>75.87</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>74.97</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2743,7 +2742,7 @@
         <v>70.989999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>55.79</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2777,7 +2776,7 @@
         <v>87.02</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2794,7 +2793,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2811,7 +2810,7 @@
         <v>83.31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>63.43</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2845,7 +2844,7 @@
         <v>73.48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>56.77</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2879,7 +2878,7 @@
         <v>78.069999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>88.39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>90.18</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2930,7 +2929,7 @@
         <v>70.930000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2947,7 +2946,7 @@
         <v>77.290000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>79.650000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -2981,7 +2980,7 @@
         <v>79.05</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>73.739999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>86.31</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>71.55</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -3049,7 +3048,7 @@
         <v>58.62</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>61.12</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>58.49</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -3100,7 +3099,7 @@
         <v>70.83</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -3117,7 +3116,7 @@
         <v>71.58</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -3134,7 +3133,7 @@
         <v>63.67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -3151,7 +3150,7 @@
         <v>77.02</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>66.91</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>61.86</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>78.2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -3219,7 +3218,7 @@
         <v>71.53</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>78.92</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>69.12</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>93.57</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>64.569999999999993</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3304,7 +3303,7 @@
         <v>63.57</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3321,7 +3320,7 @@
         <v>75.56</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>59.97</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -3355,7 +3354,7 @@
         <v>55.04</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -3372,7 +3371,7 @@
         <v>60.56</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -3389,7 +3388,7 @@
         <v>84.49</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -3406,7 +3405,7 @@
         <v>61.73</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -3423,7 +3422,7 @@
         <v>65.959999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -3440,7 +3439,7 @@
         <v>83.25</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>56.56</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>74.63</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -3491,7 +3490,7 @@
         <v>79.17</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>81.510000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -3542,7 +3541,7 @@
         <v>73.25</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>80.959999999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>69.27</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -3593,7 +3592,7 @@
         <v>64.150000000000006</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>84.03</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -3627,7 +3626,7 @@
         <v>79.02</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -3644,7 +3643,7 @@
         <v>65.94</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>68.48</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -3678,7 +3677,7 @@
         <v>51.29</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -3695,7 +3694,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -3712,7 +3711,7 @@
         <v>70.72</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -3729,7 +3728,7 @@
         <v>67.52</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>84.45</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>71.78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>70.260000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>65.25</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -3814,7 +3813,7 @@
         <v>71.09</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>100</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>65.11</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>101</v>
       </c>
@@ -3848,7 +3847,7 @@
         <v>70.680000000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -3865,7 +3864,7 @@
         <v>68.88</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>82.2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -3916,7 +3915,7 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -3933,7 +3932,7 @@
         <v>49.36</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>72.86</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>109</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>70.489999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -3984,7 +3983,7 @@
         <v>71.88</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>111</v>
       </c>
@@ -4001,7 +4000,7 @@
         <v>83.98</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>72.84</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>58.71</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>114</v>
       </c>
@@ -4052,7 +4051,7 @@
         <v>52.05</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -4069,7 +4068,7 @@
         <v>67.25</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>116</v>
       </c>
@@ -4086,7 +4085,7 @@
         <v>63.08</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -4103,7 +4102,7 @@
         <v>75.45</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>79.06</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -4137,7 +4136,7 @@
         <v>69.45</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>121</v>
       </c>
@@ -4171,7 +4170,7 @@
         <v>93.02</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>122</v>
       </c>
@@ -4188,7 +4187,7 @@
         <v>95.89</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>123</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>80.87</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>51.08</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>126</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>61.75</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>127</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>70.94</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>128</v>
       </c>
@@ -4273,7 +4272,7 @@
         <v>70.09</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>129</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>95.08</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -4307,7 +4306,7 @@
         <v>65.319999999999993</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>131</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>66.37</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>132</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>71.13</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>133</v>
       </c>
@@ -4358,7 +4357,7 @@
         <v>95.08</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>134</v>
       </c>
@@ -4375,7 +4374,7 @@
         <v>89.21</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>135</v>
       </c>
@@ -4392,7 +4391,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>136</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>52.24</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>137</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>61.82</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>138</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>83.45</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>139</v>
       </c>
@@ -4460,7 +4459,7 @@
         <v>63.14</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>140</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>61.42</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>141</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>59.07</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>142</v>
       </c>
@@ -4511,7 +4510,7 @@
         <v>59.54</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>143</v>
       </c>
@@ -4528,7 +4527,7 @@
         <v>82.87</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>144</v>
       </c>
@@ -4545,7 +4544,7 @@
         <v>72.790000000000006</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>145</v>
       </c>
@@ -4562,7 +4561,7 @@
         <v>63.87</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>146</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>147</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>73.37</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>148</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>64.48</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>76.06</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -4647,7 +4646,7 @@
         <v>87.38</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -4664,7 +4663,7 @@
         <v>67.3</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>75.52</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -4698,7 +4697,7 @@
         <v>64.430000000000007</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>72.37</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>157</v>
       </c>
@@ -4732,7 +4731,7 @@
         <v>81.48</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>158</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>74.78</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>159</v>
       </c>
@@ -4766,7 +4765,7 @@
         <v>53.53</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>160</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>89.31</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -4800,7 +4799,7 @@
         <v>64.81</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -4817,7 +4816,7 @@
         <v>82.82</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>163</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -4851,7 +4850,7 @@
         <v>61.01</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>165</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>86.57</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>70.47</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>83.23</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -4919,7 +4918,7 @@
         <v>61.74</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>169</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>62.76</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -4953,7 +4952,7 @@
         <v>74.52</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>75.14</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -4987,7 +4986,7 @@
         <v>71.91</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>173</v>
       </c>
@@ -5004,7 +5003,7 @@
         <v>70.78</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>174</v>
       </c>
@@ -5021,7 +5020,7 @@
         <v>94.09</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>175</v>
       </c>
@@ -5038,7 +5037,7 @@
         <v>83.14</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>67.430000000000007</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>78.040000000000006</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>179</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>56.53</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>180</v>
       </c>
@@ -5123,7 +5122,7 @@
         <v>83.4</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>76.989999999999995</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>182</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>69.33</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>64.849999999999994</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>65.47</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>59.25</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>61.25</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>187</v>
       </c>
@@ -5242,7 +5241,7 @@
         <v>70.11</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>70.36</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>86.98</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>86</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>70.319999999999993</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>190</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>191</v>
       </c>
@@ -5327,7 +5326,7 @@
         <v>63.17</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>192</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>71.92</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>193</v>
       </c>
@@ -5361,7 +5360,7 @@
         <v>68.48</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>194</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>76.27</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>195</v>
       </c>
@@ -5395,7 +5394,7 @@
         <v>78.680000000000007</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>196</v>
       </c>
@@ -5412,7 +5411,7 @@
         <v>68.73</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>197</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>74.209999999999994</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>198</v>
       </c>
@@ -5446,7 +5445,7 @@
         <v>67.22</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>199</v>
       </c>
@@ -5463,7 +5462,7 @@
         <v>81.069999999999993</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>200</v>
       </c>
@@ -5480,7 +5479,7 @@
         <v>77.260000000000005</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>201</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>67.430000000000007</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>202</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>63.14</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>203</v>
       </c>
@@ -5531,7 +5530,7 @@
         <v>75.790000000000006</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>204</v>
       </c>
@@ -5548,7 +5547,7 @@
         <v>61.37</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>205</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>82.64</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -5582,7 +5581,7 @@
         <v>72.23</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -5599,7 +5598,7 @@
         <v>70.989999999999995</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>76.459999999999994</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -5633,7 +5632,7 @@
         <v>80.37</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>210</v>
       </c>
@@ -5650,7 +5649,7 @@
         <v>71.62</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>65.13</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>212</v>
       </c>
@@ -5684,7 +5683,7 @@
         <v>60.01</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -5701,7 +5700,7 @@
         <v>58.89</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>214</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>53.34</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>215</v>
       </c>
@@ -5735,7 +5734,7 @@
         <v>79.790000000000006</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>216</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>82.65</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>217</v>
       </c>
@@ -5769,7 +5768,7 @@
         <v>79.95</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>218</v>
       </c>
@@ -5786,7 +5785,7 @@
         <v>75.489999999999995</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>219</v>
       </c>
@@ -5803,7 +5802,7 @@
         <v>88.28</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>220</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>72.58</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>221</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>86.88</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>222</v>
       </c>
@@ -5854,7 +5853,7 @@
         <v>83.09</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>223</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>57.67</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>224</v>
       </c>
@@ -5888,7 +5887,7 @@
         <v>72.260000000000005</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>225</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>59.76</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>226</v>
       </c>
@@ -5922,7 +5921,7 @@
         <v>73.09</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>227</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>80.010000000000005</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>228</v>
       </c>
@@ -5956,7 +5955,7 @@
         <v>82.48</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>229</v>
       </c>
@@ -5973,7 +5972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>230</v>
       </c>
@@ -5990,7 +5989,7 @@
         <v>67.150000000000006</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>231</v>
       </c>
@@ -6007,7 +6006,7 @@
         <v>73.650000000000006</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>232</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>76.260000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>233</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>49.51</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>234</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>74.13</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>235</v>
       </c>
@@ -6075,7 +6074,7 @@
         <v>95.72</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>236</v>
       </c>
@@ -6092,7 +6091,7 @@
         <v>58.82</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>237</v>
       </c>
@@ -6109,7 +6108,7 @@
         <v>73.34</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>238</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>84.37</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>239</v>
       </c>
@@ -6143,7 +6142,7 @@
         <v>70.59</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>240</v>
       </c>
@@ -6160,7 +6159,7 @@
         <v>71.16</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>241</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>88.57</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>242</v>
       </c>
@@ -6194,7 +6193,7 @@
         <v>72.010000000000005</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>243</v>
       </c>
@@ -6211,7 +6210,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>244</v>
       </c>
@@ -6228,7 +6227,7 @@
         <v>66.75</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>245</v>
       </c>
@@ -6245,7 +6244,7 @@
         <v>62.39</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>246</v>
       </c>
@@ -6262,7 +6261,7 @@
         <v>83.61</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>247</v>
       </c>
@@ -6279,7 +6278,7 @@
         <v>58.17</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>248</v>
       </c>
@@ -6296,7 +6295,7 @@
         <v>76.650000000000006</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>249</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>250</v>
       </c>
@@ -6330,7 +6329,7 @@
         <v>68.92</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>251</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>52.25</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>252</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>75.05</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>253</v>
       </c>
@@ -6381,7 +6380,7 @@
         <v>72.34</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>254</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>97.21</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>255</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>69.64</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>256</v>
       </c>
@@ -6432,7 +6431,7 @@
         <v>71.03</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>257</v>
       </c>
@@ -6449,7 +6448,7 @@
         <v>71.52</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>258</v>
       </c>
@@ -6466,7 +6465,7 @@
         <v>71.48</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>259</v>
       </c>
@@ -6483,7 +6482,7 @@
         <v>76.56</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>260</v>
       </c>
@@ -6500,7 +6499,7 @@
         <v>58.34</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>261</v>
       </c>
@@ -6517,7 +6516,7 @@
         <v>75.739999999999995</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>262</v>
       </c>
@@ -6534,7 +6533,7 @@
         <v>80.150000000000006</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>263</v>
       </c>
@@ -6551,7 +6550,7 @@
         <v>63.63</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>264</v>
       </c>
@@ -6568,7 +6567,7 @@
         <v>59.56</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>265</v>
       </c>
@@ -6585,7 +6584,7 @@
         <v>67.34</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>266</v>
       </c>
@@ -6602,7 +6601,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>267</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>75.28</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>268</v>
       </c>
@@ -6636,7 +6635,7 @@
         <v>73.430000000000007</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>270</v>
       </c>
@@ -6653,7 +6652,7 @@
         <v>68.819999999999993</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>271</v>
       </c>
@@ -6670,7 +6669,7 @@
         <v>69.040000000000006</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>272</v>
       </c>
@@ -6687,7 +6686,7 @@
         <v>71.459999999999994</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>273</v>
       </c>
@@ -6704,7 +6703,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>274</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>91.75</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>275</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>75.989999999999995</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>276</v>
       </c>
@@ -6755,7 +6754,7 @@
         <v>64.03</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>277</v>
       </c>
@@ -6772,7 +6771,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>278</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>79.56</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>279</v>
       </c>
@@ -6806,7 +6805,7 @@
         <v>63.84</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>280</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>73.34</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>281</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>282</v>
       </c>
@@ -6857,7 +6856,7 @@
         <v>80.13</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>283</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>88.05</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>284</v>
       </c>
@@ -6891,7 +6890,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>286</v>
       </c>
@@ -6908,7 +6907,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -6925,7 +6924,7 @@
         <v>68.239999999999995</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>288</v>
       </c>
@@ -6942,7 +6941,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>289</v>
       </c>
@@ -6959,7 +6958,7 @@
         <v>56.33</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>290</v>
       </c>
@@ -6976,7 +6975,7 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>291</v>
       </c>
@@ -6993,7 +6992,7 @@
         <v>76.069999999999993</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>292</v>
       </c>
@@ -7010,7 +7009,7 @@
         <v>67.13</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>293</v>
       </c>
@@ -7027,7 +7026,7 @@
         <v>70.81</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>294</v>
       </c>
@@ -7044,7 +7043,7 @@
         <v>63.74</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>295</v>
       </c>
@@ -7061,7 +7060,7 @@
         <v>59.79</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>296</v>
       </c>
@@ -7078,7 +7077,7 @@
         <v>72.13</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>297</v>
       </c>
@@ -7095,7 +7094,7 @@
         <v>80.45</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>298</v>
       </c>
@@ -7112,7 +7111,7 @@
         <v>86.16</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>299</v>
       </c>
@@ -7129,7 +7128,7 @@
         <v>72.89</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>300</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>79.34</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>301</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>302</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>74.63</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>303</v>
       </c>
@@ -7197,7 +7196,7 @@
         <v>62.55</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>304</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>88.69</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>306</v>
       </c>
@@ -7231,7 +7230,7 @@
         <v>66.72</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>307</v>
       </c>
@@ -7248,7 +7247,7 @@
         <v>89.31</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>308</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>70.14</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>309</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>78.55</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>310</v>
       </c>
@@ -7299,7 +7298,7 @@
         <v>70.510000000000005</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>311</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v>75.260000000000005</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>312</v>
       </c>
@@ -7333,7 +7332,7 @@
         <v>77.09</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>313</v>
       </c>
@@ -7350,7 +7349,7 @@
         <v>84.67</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>314</v>
       </c>
@@ -7367,7 +7366,7 @@
         <v>84.25</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>315</v>
       </c>
@@ -7384,7 +7383,7 @@
         <v>63.81</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>316</v>
       </c>
@@ -7401,7 +7400,7 @@
         <v>55.46</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>317</v>
       </c>
@@ -7418,7 +7417,7 @@
         <v>73.75</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>318</v>
       </c>
@@ -7435,7 +7434,7 @@
         <v>72.819999999999993</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>319</v>
       </c>
@@ -7452,7 +7451,7 @@
         <v>57.92</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>320</v>
       </c>
@@ -7469,7 +7468,7 @@
         <v>73.709999999999994</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>321</v>
       </c>
@@ -7486,7 +7485,7 @@
         <v>78.44</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>322</v>
       </c>
@@ -7503,7 +7502,7 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>323</v>
       </c>
@@ -7520,7 +7519,7 @@
         <v>67.989999999999995</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>324</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>64.72</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>325</v>
       </c>
@@ -7554,7 +7553,7 @@
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>326</v>
       </c>
@@ -7571,7 +7570,7 @@
         <v>64.38</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>327</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>80.12</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>328</v>
       </c>
@@ -7605,7 +7604,7 @@
         <v>75.209999999999994</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>329</v>
       </c>
@@ -7622,7 +7621,7 @@
         <v>68.16</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>330</v>
       </c>
@@ -7639,7 +7638,7 @@
         <v>69.34</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>331</v>
       </c>
@@ -7656,7 +7655,7 @@
         <v>73.069999999999993</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>332</v>
       </c>
@@ -7673,7 +7672,7 @@
         <v>77.19</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>333</v>
       </c>
@@ -7690,7 +7689,7 @@
         <v>83.59</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>334</v>
       </c>
@@ -7707,7 +7706,7 @@
         <v>82.18</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>335</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>61.28</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>336</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>337</v>
       </c>
@@ -7758,7 +7757,7 @@
         <v>84.59</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>338</v>
       </c>
@@ -7775,7 +7774,7 @@
         <v>78.41</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>339</v>
       </c>
@@ -7792,7 +7791,7 @@
         <v>68.97</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>340</v>
       </c>
@@ -7809,7 +7808,7 @@
         <v>59.22</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>341</v>
       </c>
@@ -7826,7 +7825,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>342</v>
       </c>
@@ -7843,7 +7842,7 @@
         <v>71.59</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>343</v>
       </c>
@@ -7860,7 +7859,7 @@
         <v>69.349999999999994</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>344</v>
       </c>
@@ -7877,7 +7876,7 @@
         <v>81.510000000000005</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>345</v>
       </c>
@@ -7894,7 +7893,7 @@
         <v>61.21</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>346</v>
       </c>
@@ -7911,7 +7910,7 @@
         <v>61.71</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>347</v>
       </c>
@@ -7928,7 +7927,7 @@
         <v>75.959999999999994</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>348</v>
       </c>
@@ -7945,7 +7944,7 @@
         <v>74.39</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>349</v>
       </c>
@@ -7962,7 +7961,7 @@
         <v>83.45</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>351</v>
       </c>
@@ -7979,7 +7978,7 @@
         <v>75.55</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>352</v>
       </c>
@@ -7996,7 +7995,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>353</v>
       </c>
@@ -8013,7 +8012,7 @@
         <v>74.25</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>354</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>69.09</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>355</v>
       </c>
@@ -8047,7 +8046,7 @@
         <v>85.67</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>357</v>
       </c>
@@ -8064,7 +8063,7 @@
         <v>68.540000000000006</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>358</v>
       </c>
@@ -8081,7 +8080,7 @@
         <v>82.78</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>359</v>
       </c>
@@ -8098,7 +8097,7 @@
         <v>74.73</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>360</v>
       </c>
@@ -8115,7 +8114,7 @@
         <v>58.63</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>175</v>
       </c>
@@ -8132,7 +8131,7 @@
         <v>73.260000000000005</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>361</v>
       </c>
@@ -8149,7 +8148,7 @@
         <v>64.849999999999994</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>362</v>
       </c>
@@ -8166,7 +8165,7 @@
         <v>74.62</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>363</v>
       </c>
@@ -8183,7 +8182,7 @@
         <v>70.53</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>364</v>
       </c>
@@ -8200,7 +8199,7 @@
         <v>66.22</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>365</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>66.78</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>366</v>
       </c>
@@ -8234,7 +8233,7 @@
         <v>79.12</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>367</v>
       </c>
@@ -8251,7 +8250,7 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>368</v>
       </c>
@@ -8268,7 +8267,7 @@
         <v>85.15</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>369</v>
       </c>
@@ -8285,7 +8284,7 @@
         <v>84.06</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>370</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>61.02</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>371</v>
       </c>
@@ -8319,7 +8318,7 @@
         <v>61.58</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>372</v>
       </c>
@@ -8336,7 +8335,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>373</v>
       </c>
@@ -8353,7 +8352,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>374</v>
       </c>
@@ -8370,7 +8369,7 @@
         <v>84.16</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>375</v>
       </c>
@@ -8387,7 +8386,7 @@
         <v>68.09</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>376</v>
       </c>
@@ -8404,7 +8403,7 @@
         <v>59.46</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>377</v>
       </c>
@@ -8421,7 +8420,7 @@
         <v>68.28</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>378</v>
       </c>
@@ -8438,7 +8437,7 @@
         <v>49.08</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>379</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>49.21</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>380</v>
       </c>
@@ -8472,7 +8471,7 @@
         <v>78.95</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>381</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>72.12</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>382</v>
       </c>
@@ -8506,7 +8505,7 @@
         <v>70.459999999999994</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>383</v>
       </c>
@@ -8523,7 +8522,7 @@
         <v>80.72</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>384</v>
       </c>
@@ -8540,7 +8539,7 @@
         <v>72.3</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>385</v>
       </c>
@@ -8557,7 +8556,7 @@
         <v>71.78</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>386</v>
       </c>
@@ -8574,7 +8573,7 @@
         <v>79.849999999999994</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>387</v>
       </c>
@@ -8591,7 +8590,7 @@
         <v>65.39</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>388</v>
       </c>
@@ -8608,7 +8607,7 @@
         <v>71.44</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>389</v>
       </c>
@@ -8625,7 +8624,7 @@
         <v>72.98</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>390</v>
       </c>
@@ -8642,7 +8641,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>391</v>
       </c>
@@ -8659,7 +8658,7 @@
         <v>69.66</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>392</v>
       </c>
@@ -8676,7 +8675,7 @@
         <v>76.05</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>393</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>60.33</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>394</v>
       </c>
@@ -8710,7 +8709,7 @@
         <v>84.95</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>395</v>
       </c>
@@ -8727,7 +8726,7 @@
         <v>61.02</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>396</v>
       </c>
@@ -8744,7 +8743,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>397</v>
       </c>
@@ -8761,7 +8760,7 @@
         <v>70.06</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>398</v>
       </c>
@@ -8778,7 +8777,7 @@
         <v>66.39</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>399</v>
       </c>
@@ -8795,7 +8794,7 @@
         <v>90.09</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>400</v>
       </c>
@@ -8812,7 +8811,7 @@
         <v>72.010000000000005</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>401</v>
       </c>
@@ -8829,7 +8828,7 @@
         <v>86.99</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>402</v>
       </c>
@@ -8846,7 +8845,7 @@
         <v>68.819999999999993</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>403</v>
       </c>
@@ -8863,7 +8862,7 @@
         <v>71.98</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>404</v>
       </c>
@@ -8880,7 +8879,7 @@
         <v>77.53</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>405</v>
       </c>
@@ -8897,7 +8896,7 @@
         <v>82.86</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>406</v>
       </c>
@@ -8914,7 +8913,7 @@
         <v>69.73</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>407</v>
       </c>
@@ -8931,7 +8930,7 @@
         <v>69.760000000000005</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>408</v>
       </c>
@@ -8948,7 +8947,7 @@
         <v>88.71</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>409</v>
       </c>
@@ -8965,7 +8964,7 @@
         <v>77.260000000000005</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>410</v>
       </c>
@@ -8982,7 +8981,7 @@
         <v>63.23</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>411</v>
       </c>
@@ -8999,7 +8998,7 @@
         <v>75.290000000000006</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>412</v>
       </c>
@@ -9016,7 +9015,7 @@
         <v>69.41</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>413</v>
       </c>
@@ -9033,7 +9032,7 @@
         <v>78.22</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>414</v>
       </c>
@@ -9050,7 +9049,7 @@
         <v>66.66</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>415</v>
       </c>
@@ -9067,7 +9066,7 @@
         <v>63.52</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>416</v>
       </c>
@@ -9084,7 +9083,7 @@
         <v>46.43</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>417</v>
       </c>
@@ -9101,7 +9100,7 @@
         <v>77.989999999999995</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>418</v>
       </c>
@@ -9118,7 +9117,7 @@
         <v>72.37</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>419</v>
       </c>
@@ -9135,7 +9134,7 @@
         <v>69.08</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>420</v>
       </c>
@@ -9152,7 +9151,7 @@
         <v>75.94</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>421</v>
       </c>
@@ -9169,7 +9168,7 @@
         <v>83.76</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>422</v>
       </c>
@@ -9186,7 +9185,7 @@
         <v>96.55</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>423</v>
       </c>
@@ -9203,7 +9202,7 @@
         <v>83.25</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>424</v>
       </c>
@@ -9220,7 +9219,7 @@
         <v>78.760000000000005</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>425</v>
       </c>
@@ -9237,7 +9236,7 @@
         <v>60.41</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>426</v>
       </c>
@@ -9254,7 +9253,7 @@
         <v>86.24</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>427</v>
       </c>
@@ -9271,7 +9270,7 @@
         <v>78.17</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>428</v>
       </c>
@@ -9288,7 +9287,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>429</v>
       </c>
@@ -9305,7 +9304,7 @@
         <v>63.14</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>430</v>
       </c>
@@ -9322,7 +9321,7 @@
         <v>80.41</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>431</v>
       </c>
@@ -9339,7 +9338,7 @@
         <v>52.04</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>432</v>
       </c>
@@ -9356,7 +9355,7 @@
         <v>79.25</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>433</v>
       </c>
@@ -9373,7 +9372,7 @@
         <v>86.59</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>434</v>
       </c>
@@ -9390,7 +9389,7 @@
         <v>81.75</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>435</v>
       </c>
@@ -9407,7 +9406,7 @@
         <v>64.430000000000007</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>436</v>
       </c>
@@ -9424,7 +9423,7 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>437</v>
       </c>
@@ -9441,7 +9440,7 @@
         <v>67.81</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>438</v>
       </c>
@@ -9458,7 +9457,7 @@
         <v>46.74</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>439</v>
       </c>
@@ -9475,7 +9474,7 @@
         <v>61.52</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>440</v>
       </c>
@@ -9492,7 +9491,7 @@
         <v>91.99</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>441</v>
       </c>
@@ -9509,7 +9508,7 @@
         <v>68.77</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>442</v>
       </c>
@@ -9526,7 +9525,7 @@
         <v>82.15</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>443</v>
       </c>
@@ -9543,7 +9542,7 @@
         <v>75.69</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>444</v>
       </c>
@@ -9560,7 +9559,7 @@
         <v>54.08</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>445</v>
       </c>
@@ -9577,7 +9576,7 @@
         <v>69.22</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>446</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v>62.69</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>447</v>
       </c>
@@ -9611,7 +9610,7 @@
         <v>69.150000000000006</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>448</v>
       </c>
@@ -9628,7 +9627,7 @@
         <v>74.36</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>449</v>
       </c>
@@ -9645,7 +9644,7 @@
         <v>77.430000000000007</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>450</v>
       </c>
@@ -9662,7 +9661,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>451</v>
       </c>
@@ -9679,7 +9678,7 @@
         <v>67.7</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>452</v>
       </c>
@@ -9696,7 +9695,7 @@
         <v>75.12</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>453</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>454</v>
       </c>
@@ -9730,7 +9729,7 @@
         <v>80.22</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>455</v>
       </c>
@@ -9747,7 +9746,7 @@
         <v>86.05</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>456</v>
       </c>
@@ -9764,7 +9763,7 @@
         <v>66.87</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>457</v>
       </c>
@@ -9781,7 +9780,7 @@
         <v>60.18</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>458</v>
       </c>
@@ -9798,7 +9797,7 @@
         <v>69.319999999999993</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>459</v>
       </c>
@@ -9815,7 +9814,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>460</v>
       </c>
@@ -9832,7 +9831,7 @@
         <v>76.22</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>461</v>
       </c>
@@ -9849,7 +9848,7 @@
         <v>55.25</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>462</v>
       </c>
@@ -9866,7 +9865,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>463</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>65.73</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>464</v>
       </c>
@@ -9900,7 +9899,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>465</v>
       </c>
@@ -9917,7 +9916,7 @@
         <v>61.43</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>466</v>
       </c>
@@ -9934,7 +9933,7 @@
         <v>64.790000000000006</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>467</v>
       </c>
@@ -9951,7 +9950,7 @@
         <v>67.37</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>468</v>
       </c>
@@ -9968,7 +9967,7 @@
         <v>64.63</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>469</v>
       </c>
@@ -9985,7 +9984,7 @@
         <v>62.42</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>470</v>
       </c>
@@ -10002,7 +10001,7 @@
         <v>81.53</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>471</v>
       </c>
@@ -10019,7 +10018,7 @@
         <v>70.680000000000007</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>472</v>
       </c>
@@ -10036,7 +10035,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>473</v>
       </c>
@@ -10053,7 +10052,7 @@
         <v>65.05</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>474</v>
       </c>
@@ -10070,7 +10069,7 @@
         <v>77.930000000000007</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>475</v>
       </c>
@@ -10087,7 +10086,7 @@
         <v>49.76</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>476</v>
       </c>
@@ -10104,7 +10103,7 @@
         <v>76.31</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>477</v>
       </c>
@@ -10121,7 +10120,7 @@
         <v>80.42</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>478</v>
       </c>
@@ -10138,7 +10137,7 @@
         <v>80.650000000000006</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>479</v>
       </c>
@@ -10155,7 +10154,7 @@
         <v>68.03</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>480</v>
       </c>
@@ -10172,7 +10171,7 @@
         <v>69.25</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>481</v>
       </c>
@@ -10189,7 +10188,7 @@
         <v>83.88</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>482</v>
       </c>
@@ -10206,7 +10205,7 @@
         <v>85.44</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>483</v>
       </c>
@@ -10223,7 +10222,7 @@
         <v>69.25</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>484</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>73.17</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>485</v>
       </c>
@@ -10257,7 +10256,7 @@
         <v>67.92</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>486</v>
       </c>
@@ -10274,7 +10273,7 @@
         <v>63.08</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>487</v>
       </c>
@@ -10291,7 +10290,7 @@
         <v>77.72</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>488</v>
       </c>
@@ -10308,7 +10307,7 @@
         <v>65.81</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>489</v>
       </c>
@@ -10325,7 +10324,7 @@
         <v>48.82</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>490</v>
       </c>
@@ -10342,7 +10341,7 @@
         <v>80.989999999999995</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>491</v>
       </c>
@@ -10359,7 +10358,7 @@
         <v>86.85</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>492</v>
       </c>
@@ -10376,7 +10375,7 @@
         <v>65.22</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>493</v>
       </c>
@@ -10393,7 +10392,7 @@
         <v>84.66</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>494</v>
       </c>
@@ -10410,7 +10409,7 @@
         <v>65.27</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>495</v>
       </c>
@@ -10427,7 +10426,7 @@
         <v>64.510000000000005</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>128</v>
       </c>
@@ -10444,7 +10443,7 @@
         <v>55.97</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -10461,7 +10460,7 @@
         <v>67.92</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -10478,7 +10477,7 @@
         <v>85.56</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -10495,7 +10494,7 @@
         <v>66.42</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -10512,7 +10511,7 @@
         <v>65.41</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>500</v>
       </c>
@@ -10529,7 +10528,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>501</v>
       </c>
@@ -10546,7 +10545,7 @@
         <v>84.15</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>503</v>
       </c>
@@ -10563,7 +10562,7 @@
         <v>60.85</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>504</v>
       </c>
@@ -10580,7 +10579,7 @@
         <v>89.57</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>506</v>
       </c>
@@ -10597,7 +10596,7 @@
         <v>89.03</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>507</v>
       </c>
@@ -10614,7 +10613,7 @@
         <v>79.069999999999993</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>508</v>
       </c>
@@ -10631,7 +10630,7 @@
         <v>83.64</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>509</v>
       </c>
@@ -10648,7 +10647,7 @@
         <v>68.260000000000005</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>510</v>
       </c>
@@ -10665,7 +10664,7 @@
         <v>78.36</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>511</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>64.59</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>512</v>
       </c>
@@ -10699,7 +10698,7 @@
         <v>72.63</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>513</v>
       </c>
@@ -10716,7 +10715,7 @@
         <v>78.63</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>514</v>
       </c>
@@ -10733,7 +10732,7 @@
         <v>61.83</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>515</v>
       </c>
@@ -10750,7 +10749,7 @@
         <v>64.36</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>516</v>
       </c>
@@ -10767,7 +10766,7 @@
         <v>71.34</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>517</v>
       </c>
@@ -10784,7 +10783,7 @@
         <v>56.08</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>518</v>
       </c>
@@ -10801,7 +10800,7 @@
         <v>67.88</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>519</v>
       </c>
@@ -10818,7 +10817,7 @@
         <v>70.290000000000006</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>520</v>
       </c>
@@ -10835,7 +10834,7 @@
         <v>69.739999999999995</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>521</v>
       </c>
@@ -10852,7 +10851,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>522</v>
       </c>
@@ -10869,7 +10868,7 @@
         <v>64.13</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>523</v>
       </c>
@@ -10886,7 +10885,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>524</v>
       </c>
@@ -10903,7 +10902,7 @@
         <v>59.51</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>525</v>
       </c>
@@ -10920,7 +10919,7 @@
         <v>66.84</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>526</v>
       </c>
@@ -10937,7 +10936,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>527</v>
       </c>
@@ -10954,7 +10953,7 @@
         <v>67.430000000000007</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>528</v>
       </c>
@@ -10971,7 +10970,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>529</v>
       </c>
@@ -10988,7 +10987,7 @@
         <v>57.43</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>530</v>
       </c>
@@ -11005,7 +11004,7 @@
         <v>82.02</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>531</v>
       </c>
@@ -11022,7 +11021,7 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>532</v>
       </c>
@@ -11039,7 +11038,7 @@
         <v>82.19</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>533</v>
       </c>
@@ -11056,7 +11055,7 @@
         <v>57.22</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>534</v>
       </c>
@@ -11073,7 +11072,7 @@
         <v>74.33</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>535</v>
       </c>
@@ -11090,7 +11089,7 @@
         <v>70.64</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>536</v>
       </c>
@@ -11107,7 +11106,7 @@
         <v>53.78</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>537</v>
       </c>
@@ -11124,7 +11123,7 @@
         <v>65.89</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>538</v>
       </c>
@@ -11141,7 +11140,7 @@
         <v>67.58</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>539</v>
       </c>
@@ -11158,7 +11157,7 @@
         <v>68.17</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>540</v>
       </c>
@@ -11175,7 +11174,7 @@
         <v>87.59</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>541</v>
       </c>
@@ -11192,7 +11191,7 @@
         <v>63.86</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>542</v>
       </c>
@@ -11209,7 +11208,7 @@
         <v>80.47</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>543</v>
       </c>
@@ -11226,7 +11225,7 @@
         <v>76.36</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>544</v>
       </c>
@@ -11243,7 +11242,7 @@
         <v>69.55</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>545</v>
       </c>
@@ -11260,7 +11259,7 @@
         <v>73.09</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>546</v>
       </c>
@@ -11277,7 +11276,7 @@
         <v>48.54</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>547</v>
       </c>
@@ -11294,7 +11293,7 @@
         <v>79.78</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>548</v>
       </c>
@@ -11311,7 +11310,7 @@
         <v>57.35</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>549</v>
       </c>
@@ -11328,7 +11327,7 @@
         <v>74.42</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>550</v>
       </c>
@@ -11345,7 +11344,7 @@
         <v>79.349999999999994</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>551</v>
       </c>
@@ -11362,7 +11361,7 @@
         <v>67.989999999999995</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>552</v>
       </c>
@@ -11379,7 +11378,7 @@
         <v>67.819999999999993</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>553</v>
       </c>
@@ -11396,7 +11395,7 @@
         <v>72.31</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>554</v>
       </c>
@@ -11413,7 +11412,7 @@
         <v>75.78</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>555</v>
       </c>
@@ -11430,7 +11429,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>556</v>
       </c>
@@ -11447,7 +11446,7 @@
         <v>83.68</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>557</v>
       </c>
@@ -11464,7 +11463,7 @@
         <v>78.86</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>558</v>
       </c>
@@ -11481,7 +11480,7 @@
         <v>53.49</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>559</v>
       </c>
@@ -11498,7 +11497,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>560</v>
       </c>
@@ -11515,7 +11514,7 @@
         <v>74.319999999999993</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>561</v>
       </c>
@@ -11532,7 +11531,7 @@
         <v>81.88</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>562</v>
       </c>
@@ -11549,7 +11548,7 @@
         <v>63.48</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>563</v>
       </c>
@@ -11566,7 +11565,7 @@
         <v>68.489999999999995</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>564</v>
       </c>
@@ -11583,7 +11582,7 @@
         <v>82.61</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>565</v>
       </c>
@@ -11600,7 +11599,7 @@
         <v>42.12</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>566</v>
       </c>
@@ -11617,7 +11616,7 @@
         <v>63.86</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>567</v>
       </c>
@@ -11634,7 +11633,7 @@
         <v>78.8</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>568</v>
       </c>
@@ -11651,7 +11650,7 @@
         <v>86.53</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>569</v>
       </c>
@@ -11668,7 +11667,7 @@
         <v>72.17</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>570</v>
       </c>
@@ -11685,7 +11684,7 @@
         <v>86.08</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>572</v>
       </c>
@@ -11702,7 +11701,7 @@
         <v>82.25</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>573</v>
       </c>
@@ -11719,7 +11718,7 @@
         <v>63.55</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>574</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>575</v>
       </c>
@@ -11753,7 +11752,7 @@
         <v>66.739999999999995</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>576</v>
       </c>
@@ -11770,7 +11769,7 @@
         <v>67.61</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>577</v>
       </c>
@@ -11787,7 +11786,7 @@
         <v>81.95</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>441</v>
       </c>
@@ -11804,7 +11803,7 @@
         <v>88.15</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>578</v>
       </c>
@@ -11821,7 +11820,7 @@
         <v>71.61</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>579</v>
       </c>
@@ -11838,7 +11837,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>580</v>
       </c>
@@ -11855,7 +11854,7 @@
         <v>59.23</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>581</v>
       </c>
@@ -11872,7 +11871,7 @@
         <v>74.47</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>582</v>
       </c>
@@ -11889,7 +11888,7 @@
         <v>64.680000000000007</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>583</v>
       </c>
@@ -11906,7 +11905,7 @@
         <v>97.89</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>585</v>
       </c>
@@ -11923,7 +11922,7 @@
         <v>61.64</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>586</v>
       </c>
@@ -11940,7 +11939,7 @@
         <v>56.28</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>587</v>
       </c>
@@ -11957,7 +11956,7 @@
         <v>82.65</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>588</v>
       </c>
@@ -11974,7 +11973,7 @@
         <v>77.87</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>173</v>
       </c>
@@ -11991,7 +11990,7 @@
         <v>84.59</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>589</v>
       </c>
@@ -12008,7 +12007,7 @@
         <v>84.79</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>591</v>
       </c>
@@ -12025,7 +12024,7 @@
         <v>85.72</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>592</v>
       </c>
@@ -12042,7 +12041,7 @@
         <v>76.239999999999995</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>593</v>
       </c>
@@ -12059,7 +12058,7 @@
         <v>75.81</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>594</v>
       </c>
@@ -12076,7 +12075,7 @@
         <v>81.41</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>595</v>
       </c>
@@ -12093,7 +12092,7 @@
         <v>73.95</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>596</v>
       </c>
@@ -12110,7 +12109,7 @@
         <v>58.15</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>597</v>
       </c>
@@ -12127,7 +12126,7 @@
         <v>72.569999999999993</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>598</v>
       </c>
@@ -12144,7 +12143,7 @@
         <v>58.04</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>599</v>
       </c>
@@ -12161,7 +12160,7 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>600</v>
       </c>
@@ -12178,7 +12177,7 @@
         <v>83.85</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>602</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>82.78</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>603</v>
       </c>
@@ -12212,7 +12211,7 @@
         <v>85.23</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>604</v>
       </c>
@@ -12229,7 +12228,7 @@
         <v>60.76</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>605</v>
       </c>
@@ -12246,7 +12245,7 @@
         <v>80.010000000000005</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>606</v>
       </c>
@@ -12263,7 +12262,7 @@
         <v>79.83</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>607</v>
       </c>
@@ -12280,7 +12279,7 @@
         <v>75.67</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>230</v>
       </c>
@@ -12297,7 +12296,7 @@
         <v>40.86</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>608</v>
       </c>
@@ -12314,7 +12313,7 @@
         <v>56.99</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>609</v>
       </c>
@@ -12331,7 +12330,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>610</v>
       </c>
@@ -12348,7 +12347,7 @@
         <v>89.13</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>612</v>
       </c>
@@ -12365,7 +12364,7 @@
         <v>75.849999999999994</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>613</v>
       </c>
@@ -12382,7 +12381,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>614</v>
       </c>
@@ -12399,7 +12398,7 @@
         <v>75.16</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>615</v>
       </c>
@@ -12416,7 +12415,7 @@
         <v>77.540000000000006</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>616</v>
       </c>
@@ -12433,7 +12432,7 @@
         <v>87.05</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>617</v>
       </c>
@@ -12450,7 +12449,7 @@
         <v>73.08</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>618</v>
       </c>
@@ -12467,7 +12466,7 @@
         <v>91.62</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>619</v>
       </c>
@@ -12484,7 +12483,7 @@
         <v>88.07</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>621</v>
       </c>
@@ -12501,7 +12500,7 @@
         <v>81.349999999999994</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>622</v>
       </c>
@@ -12518,7 +12517,7 @@
         <v>79.95</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>624</v>
       </c>
@@ -12535,7 +12534,7 @@
         <v>87.69</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>625</v>
       </c>
@@ -12552,7 +12551,7 @@
         <v>78.05</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>626</v>
       </c>
@@ -12569,7 +12568,7 @@
         <v>88.86</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>627</v>
       </c>
@@ -12586,7 +12585,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>628</v>
       </c>
@@ -12603,7 +12602,7 @@
         <v>81.42</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>629</v>
       </c>
@@ -12620,7 +12619,7 @@
         <v>68.180000000000007</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>630</v>
       </c>
@@ -12637,7 +12636,7 @@
         <v>71.11</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>631</v>
       </c>
@@ -12654,7 +12653,7 @@
         <v>71.72</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>632</v>
       </c>
@@ -12671,7 +12670,7 @@
         <v>88.34</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>633</v>
       </c>
@@ -12688,7 +12687,7 @@
         <v>71.34</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>634</v>
       </c>
@@ -12705,7 +12704,7 @@
         <v>85.26</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>635</v>
       </c>
@@ -12722,7 +12721,7 @@
         <v>70.05</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>636</v>
       </c>
@@ -12739,7 +12738,7 @@
         <v>48.62</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>637</v>
       </c>
@@ -12756,7 +12755,7 @@
         <v>77.39</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>638</v>
       </c>
@@ -12773,7 +12772,7 @@
         <v>77.2</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>639</v>
       </c>
@@ -12790,7 +12789,7 @@
         <v>95.91</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>640</v>
       </c>
@@ -12807,7 +12806,7 @@
         <v>65.88</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>641</v>
       </c>
@@ -12824,7 +12823,7 @@
         <v>66.459999999999994</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>642</v>
       </c>
@@ -12841,7 +12840,7 @@
         <v>52.19</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>643</v>
       </c>
@@ -12858,7 +12857,7 @@
         <v>83.91</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>644</v>
       </c>
@@ -12875,7 +12874,7 @@
         <v>72.540000000000006</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>645</v>
       </c>
@@ -12892,7 +12891,7 @@
         <v>77.95</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>646</v>
       </c>
@@ -12909,7 +12908,7 @@
         <v>48.75</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>647</v>
       </c>
@@ -12926,7 +12925,7 @@
         <v>84.93</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>648</v>
       </c>
@@ -12943,7 +12942,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>649</v>
       </c>
@@ -12960,7 +12959,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>650</v>
       </c>
@@ -12977,7 +12976,7 @@
         <v>67.069999999999993</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>651</v>
       </c>
@@ -12994,7 +12993,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>652</v>
       </c>
@@ -13011,7 +13010,7 @@
         <v>74.349999999999994</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>653</v>
       </c>
@@ -13028,7 +13027,7 @@
         <v>60.02</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>654</v>
       </c>
@@ -13045,7 +13044,7 @@
         <v>69.540000000000006</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>655</v>
       </c>
@@ -13062,7 +13061,7 @@
         <v>97.91</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>656</v>
       </c>
@@ -13079,7 +13078,7 @@
         <v>91.85</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>657</v>
       </c>
@@ -13096,7 +13095,7 @@
         <v>90.01</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>658</v>
       </c>
@@ -13113,7 +13112,7 @@
         <v>79.47</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>659</v>
       </c>
@@ -13130,7 +13129,7 @@
         <v>69.13</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>660</v>
       </c>
@@ -13147,7 +13146,7 @@
         <v>83.46</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>661</v>
       </c>
@@ -13164,7 +13163,7 @@
         <v>72.17</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>662</v>
       </c>
@@ -13181,7 +13180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>663</v>
       </c>
@@ -13198,7 +13197,7 @@
         <v>78.010000000000005</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>664</v>
       </c>
@@ -13215,7 +13214,7 @@
         <v>97.87</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>665</v>
       </c>
@@ -13232,7 +13231,7 @@
         <v>78.06</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>666</v>
       </c>
@@ -13249,7 +13248,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>667</v>
       </c>
@@ -13266,7 +13265,7 @@
         <v>76.81</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>668</v>
       </c>
@@ -13283,7 +13282,7 @@
         <v>56.46</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>669</v>
       </c>
